--- a/Lista 10/ex3/DADOS E GRÁFICO.xlsx
+++ b/Lista 10/ex3/DADOS E GRÁFICO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Google Drive\USP\Engenharia da Computação\4º Período\POO\Listas-POO-SCC0604\Lista 10\ex3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C98A0F3-ADDA-4606-84A2-6B4CA9FC8D2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611A6A5A-DD73-466C-86D5-7C87E9CBE8C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18135" yWindow="2250" windowWidth="21210" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
   <si>
     <t>Raiz quadrada Serial (ms)</t>
   </si>
@@ -48,17 +48,47 @@
     <t>Cálculos</t>
   </si>
   <si>
-    <t>OBS: Tive de modificar o programa para aceitar estes valores grandes. Usei, por exemplo, 10^5 ao quadrado</t>
+    <t>Letra D</t>
   </si>
   <si>
-    <t>Letra D</t>
+    <t>Letra E - POW</t>
+  </si>
+  <si>
+    <t>Letra E - COS</t>
+  </si>
+  <si>
+    <t>Letra D - Soma</t>
+  </si>
+  <si>
+    <t>Letra E</t>
+  </si>
+  <si>
+    <t>Serial</t>
+  </si>
+  <si>
+    <t>Paralelo</t>
+  </si>
+  <si>
+    <t>Paralela</t>
+  </si>
+  <si>
+    <t>Uso das thread trouxe desempenho superior no cálculo da raiz</t>
+  </si>
+  <si>
+    <t>Uso das thread trouxe um melhor desempenho no geral no cálculo dos cossenos</t>
+  </si>
+  <si>
+    <t>Uso das thread trouxe melhor desempenho no cálculo das potências</t>
+  </si>
+  <si>
+    <t>Uso das thread trouxe desempenho muito melhor no cálculo das somas, principalmente para entradas maiores</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,7 +128,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -119,7 +156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -192,13 +229,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -207,7 +274,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -229,8 +295,51 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -247,6 +356,3121 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1800"/>
+              <a:t>Cálculo de SQRT</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Serial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan1!$B$27:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$C$27:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.1643528557844367</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1376705372367546</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1374174149903924</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1411172619171515</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B494-465B-AE55-6466329F662C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$D$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Paralelo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan1!$B$27:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$D$27:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.9242792860618814</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7419390777291985</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7853298350107667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7372403647510355</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B494-465B-AE55-6466329F662C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="556010912"/>
+        <c:axId val="556009600"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="556010912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1100"/>
+                  <a:t>log(NumDados)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556009600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="556009600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1100"/>
+                  <a:t>log(Tempo) (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556010912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1800"/>
+              <a:t>Cálculo Soma</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Serial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan1!$E$27:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$F$27:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.1461280356782377</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.556302500767287</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4742162640762553</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4313637641589869</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-4629-433D-9A27-F0D0465E6032}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$G$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Paralela</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan1!$E$27:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$G$27:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.4771212547196624</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.414973347970818</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0293837776852093</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7323937598229686</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-4629-433D-9A27-F0D0465E6032}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Serial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan1!$E$27:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$F$27:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.1461280356782377</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.556302500767287</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4742162640762553</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4313637641589869</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4629-433D-9A27-F0D0465E6032}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$G$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Paralela</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan1!$E$27:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$G$27:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.4771212547196624</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.414973347970818</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0293837776852093</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7323937598229686</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4629-433D-9A27-F0D0465E6032}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="666672808"/>
+        <c:axId val="666669200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="666672808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1100"/>
+                  <a:t>log(numDados)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="666669200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="666669200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1100"/>
+                  <a:t>log(Tempo) (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="666672808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1800"/>
+              <a:t>Cálculo Potência</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$I$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Serial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan1!$E$27:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$I$27:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.1673173347481756</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1532049000842841</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1517068570225764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.140985441631547</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-2434-4688-9879-7D9911D0D7A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$J$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Paralela</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan1!$E$27:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$J$27:$J$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.9084850188786497</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7951845896824237</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7058637122839189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7504158177773661</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-2434-4688-9879-7D9911D0D7A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$I$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Serial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan1!$E$27:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$I$27:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.1673173347481756</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1532049000842841</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1517068570225764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.140985441631547</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-2434-4688-9879-7D9911D0D7A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$J$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Paralela</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan1!$E$27:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$J$27:$J$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.9084850188786497</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7951845896824237</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7058637122839189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7504158177773661</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-2434-4688-9879-7D9911D0D7A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$I$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Serial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan1!$E$27:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$I$27:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.1673173347481756</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1532049000842841</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1517068570225764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.140985441631547</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-2434-4688-9879-7D9911D0D7A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$J$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Paralela</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan1!$E$27:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$J$27:$J$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.9084850188786497</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7951845896824237</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7058637122839189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7504158177773661</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-2434-4688-9879-7D9911D0D7A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$I$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Serial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan1!$E$27:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$I$27:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.1673173347481756</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1532049000842841</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1517068570225764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.140985441631547</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-2434-4688-9879-7D9911D0D7A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$J$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Paralela</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan1!$E$27:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$J$27:$J$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.9084850188786497</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7951845896824237</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7058637122839189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7504158177773661</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-2434-4688-9879-7D9911D0D7A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="666672808"/>
+        <c:axId val="666669200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="666672808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1100"/>
+                  <a:t>log(numDados)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="666669200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="666669200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1100"/>
+                  <a:t>log(Tempo) (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="666672808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1800"/>
+              <a:t>Cálculo Cosseno</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37653020769232642"/>
+          <c:y val="5.0925925925925923E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$L$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Serial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan1!$E$27:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$L$27:$L$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.7745169657285493</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7779340488377793</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7698645260967325</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7824160045283408</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7FE4-437A-AF77-48940AD131ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$M$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Paralela</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan1!$E$27:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$M$27:$M$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.2988530764097064</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2462523122993217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2263162969393342</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2084279189014167</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7FE4-437A-AF77-48940AD131ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="666672808"/>
+        <c:axId val="666669200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="666672808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1100"/>
+                  <a:t>log(numDados)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="666669200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="666669200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1100"/>
+                  <a:t>log(Tempo) (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="666672808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>17808</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1458244</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>116021</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5196C1F9-DEE6-4493-A0E3-9352E598204C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>374889</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>39832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1376288</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>116032</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23EBE981-853E-4101-96FD-8F919D8FC694}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>153680</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>189918</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1836964</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>75618</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2CC5FF2-E136-4C5F-8952-4A28EAE308D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>176459</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>155863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1844389</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>41563</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Gráfico 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47F11EC7-6562-4279-BF32-193AABB63342}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -512,388 +3736,1037 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I26"/>
+  <dimension ref="B1:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20:I22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.85546875" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" customWidth="1"/>
+    <col min="12" max="12" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10"/>
-      <c r="G1" s="8" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="10"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="21"/>
+      <c r="M1" s="22"/>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="11">
         <f>POWER(10, 7)</f>
         <v>10000000</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="11">
         <f>POWER(10, 7)</f>
         <v>10000000</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="13">
+      <c r="F2" s="11">
         <f>POWER(10, 7)</f>
         <v>10000000</v>
       </c>
-      <c r="I2" s="13">
+      <c r="G2" s="11">
         <f>POWER(10, 7)</f>
         <v>10000000</v>
       </c>
+      <c r="H2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="11">
+        <f>POWER(10, 7)</f>
+        <v>10000000</v>
+      </c>
+      <c r="J2" s="11">
+        <f>POWER(10, 7)</f>
+        <v>10000000</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="11">
+        <f>POWER(10, 7)</f>
+        <v>10000000</v>
+      </c>
+      <c r="M2" s="11">
+        <f>POWER(10, 7)</f>
+        <v>10000000</v>
+      </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="3" t="s">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="I3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
         <v>145</v>
       </c>
       <c r="D4" s="1">
         <v>82</v>
       </c>
-      <c r="H4" s="2">
-        <v>145</v>
-      </c>
-      <c r="I4" s="2">
-        <v>82</v>
+      <c r="F4" s="1">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1">
+        <v>147</v>
+      </c>
+      <c r="J4" s="1">
+        <v>85</v>
+      </c>
+      <c r="L4" s="1">
+        <v>592</v>
+      </c>
+      <c r="M4" s="1">
+        <v>194</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
         <v>147</v>
       </c>
       <c r="D5" s="1">
         <v>82</v>
       </c>
-      <c r="H5" s="2">
-        <v>147</v>
-      </c>
-      <c r="I5" s="2">
-        <v>82</v>
+      <c r="F5" s="1">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1">
+        <v>25</v>
+      </c>
+      <c r="I5" s="1">
+        <v>153</v>
+      </c>
+      <c r="J5" s="1">
+        <v>76</v>
+      </c>
+      <c r="L5" s="1">
+        <v>591</v>
+      </c>
+      <c r="M5" s="1">
+        <v>186</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
         <v>148</v>
       </c>
       <c r="D6" s="1">
         <v>87</v>
       </c>
-      <c r="H6" s="2">
-        <v>148</v>
-      </c>
-      <c r="I6" s="2">
-        <v>87</v>
+      <c r="F6" s="1">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>28</v>
+      </c>
+      <c r="I6" s="1">
+        <v>147</v>
+      </c>
+      <c r="J6" s="1">
+        <v>78</v>
+      </c>
+      <c r="L6" s="1">
+        <v>599</v>
+      </c>
+      <c r="M6" s="1">
+        <v>195</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
         <v>142</v>
       </c>
       <c r="D7" s="1">
         <v>87</v>
       </c>
-      <c r="H7" s="2">
-        <v>142</v>
-      </c>
-      <c r="I7" s="2">
-        <v>87</v>
+      <c r="F7" s="1">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1">
+        <v>42</v>
+      </c>
+      <c r="I7" s="1">
+        <v>148</v>
+      </c>
+      <c r="J7" s="1">
+        <v>75</v>
+      </c>
+      <c r="L7" s="1">
+        <v>603</v>
+      </c>
+      <c r="M7" s="1">
+        <v>197</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="2">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
         <v>144</v>
       </c>
       <c r="D8" s="1">
         <v>87</v>
       </c>
-      <c r="H8" s="2">
-        <v>144</v>
-      </c>
-      <c r="I8" s="2">
+      <c r="F8" s="1">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1">
+        <v>33</v>
+      </c>
+      <c r="I8" s="1">
+        <v>146</v>
+      </c>
+      <c r="J8" s="1">
         <v>87</v>
       </c>
+      <c r="L8" s="1">
+        <v>598</v>
+      </c>
+      <c r="M8" s="1">
+        <v>229</v>
+      </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="2">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
         <v>146</v>
       </c>
       <c r="D9" s="1">
         <v>99</v>
       </c>
-      <c r="H9" s="2">
-        <v>146</v>
-      </c>
-      <c r="I9" s="2">
-        <v>99</v>
+      <c r="F9" s="1">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1">
+        <v>33</v>
+      </c>
+      <c r="I9" s="1">
+        <v>148</v>
+      </c>
+      <c r="J9" s="1">
+        <v>91</v>
+      </c>
+      <c r="L9" s="1">
+        <v>591</v>
+      </c>
+      <c r="M9" s="1">
+        <v>200</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="2">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
         <v>145</v>
       </c>
       <c r="D10" s="1">
         <v>80</v>
       </c>
-      <c r="H10" s="2">
-        <v>145</v>
-      </c>
-      <c r="I10" s="2">
-        <v>80</v>
+      <c r="F10" s="1">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1">
+        <v>32</v>
+      </c>
+      <c r="I10" s="1">
+        <v>147</v>
+      </c>
+      <c r="J10" s="1">
+        <v>74</v>
+      </c>
+      <c r="L10" s="1">
+        <v>592</v>
+      </c>
+      <c r="M10" s="1">
+        <v>192</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
         <v>148</v>
       </c>
       <c r="D11" s="1">
         <v>79</v>
       </c>
-      <c r="H11" s="2">
-        <v>148</v>
-      </c>
-      <c r="I11" s="2">
-        <v>79</v>
+      <c r="F11" s="1">
+        <v>13</v>
+      </c>
+      <c r="G11" s="1">
+        <v>22</v>
+      </c>
+      <c r="I11" s="1">
+        <v>149</v>
+      </c>
+      <c r="J11" s="1">
+        <v>78</v>
+      </c>
+      <c r="L11" s="1">
+        <v>599</v>
+      </c>
+      <c r="M11" s="1">
+        <v>208</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
         <v>147</v>
       </c>
       <c r="D12" s="1">
         <v>72</v>
       </c>
-      <c r="H12" s="2">
-        <v>147</v>
-      </c>
-      <c r="I12" s="2">
-        <v>72</v>
+      <c r="F12" s="1">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1">
+        <v>25</v>
+      </c>
+      <c r="I12" s="1">
+        <v>150</v>
+      </c>
+      <c r="J12" s="1">
+        <v>82</v>
+      </c>
+      <c r="L12" s="1">
+        <v>603</v>
+      </c>
+      <c r="M12" s="1">
+        <v>198</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
         <v>149</v>
       </c>
       <c r="D13" s="1">
         <v>90</v>
       </c>
-      <c r="H13" s="2">
-        <v>149</v>
-      </c>
-      <c r="I13" s="2">
-        <v>90</v>
+      <c r="F13" s="1">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1">
+        <v>32</v>
+      </c>
+      <c r="I13" s="1">
+        <v>143</v>
+      </c>
+      <c r="J13" s="1">
+        <v>84</v>
+      </c>
+      <c r="L13" s="1">
+        <v>591</v>
+      </c>
+      <c r="M13" s="1">
+        <v>195</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <f>AVERAGE(C4:C13)</f>
         <v>146.1</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <f>AVERAGE(D4:D13)</f>
         <v>84.5</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="4">
-        <f>AVERAGE(H4:H13)</f>
-        <v>146.1</v>
-      </c>
-      <c r="I14" s="4">
+      <c r="F14" s="3">
+        <f>AVERAGE(F4:F13)</f>
+        <v>13.8</v>
+      </c>
+      <c r="G14" s="3">
+        <f>AVERAGE(G4:G13)</f>
+        <v>30.2</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
         <f>AVERAGE(I4:I13)</f>
-        <v>84.5</v>
+        <v>147.80000000000001</v>
+      </c>
+      <c r="J14" s="3">
+        <f>AVERAGE(J4:J13)</f>
+        <v>81</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
+        <f>AVERAGE(L4:L13)</f>
+        <v>595.9</v>
+      </c>
+      <c r="M14" s="3">
+        <f>AVERAGE(M4:M13)</f>
+        <v>199.4</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="8" t="s">
+    <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:13" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="6"/>
-      <c r="G18" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="10"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="8"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="E19" s="5"/>
+      <c r="F19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="L19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="M19" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="12">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="10">
         <f>POWER(10, 7)</f>
         <v>10000000</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>146</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>84</v>
       </c>
-      <c r="G20" s="12">
+      <c r="E20" s="10">
         <f>POWER(10, 7)</f>
         <v>10000000</v>
       </c>
-      <c r="H20" s="2">
-        <v>146</v>
-      </c>
-      <c r="I20" s="2">
-        <v>84</v>
+      <c r="F20" s="1">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1">
+        <v>30</v>
+      </c>
+      <c r="H20" s="10">
+        <f>POWER(10, 7)</f>
+        <v>10000000</v>
+      </c>
+      <c r="I20" s="1">
+        <v>147</v>
+      </c>
+      <c r="J20" s="1">
+        <v>81</v>
+      </c>
+      <c r="K20" s="10">
+        <f>POWER(10, 7)</f>
+        <v>10000000</v>
+      </c>
+      <c r="L20" s="1">
+        <v>595</v>
+      </c>
+      <c r="M20" s="1">
+        <v>199</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="12">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="10">
         <f>POWER(10, 8)</f>
         <v>100000000</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>1373</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>552</v>
       </c>
-      <c r="G21" s="12">
+      <c r="E21" s="10">
         <f>POWER(10, 8)</f>
         <v>100000000</v>
       </c>
-      <c r="H21" s="2">
-        <v>1373</v>
-      </c>
-      <c r="I21" s="2">
-        <v>552</v>
+      <c r="F21" s="1">
+        <v>36</v>
+      </c>
+      <c r="G21" s="1">
+        <v>26</v>
+      </c>
+      <c r="H21" s="10">
+        <f>POWER(10, 8)</f>
+        <v>100000000</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1423</v>
+      </c>
+      <c r="J21" s="1">
+        <v>624</v>
+      </c>
+      <c r="K21" s="10">
+        <f>POWER(10, 8)</f>
+        <v>100000000</v>
+      </c>
+      <c r="L21" s="1">
+        <v>5997</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1763</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="12">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="10">
         <f>POWER(10, 9)</f>
         <v>1000000000</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>13722</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>6100</v>
       </c>
-      <c r="E22" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="12">
+      <c r="E22" s="10">
         <f>POWER(10, 9)</f>
         <v>1000000000</v>
       </c>
-      <c r="H22" s="2">
-        <v>13722</v>
-      </c>
-      <c r="I22" s="2">
-        <v>6100</v>
+      <c r="F22" s="1">
+        <v>298</v>
+      </c>
+      <c r="G22" s="1">
+        <v>107</v>
+      </c>
+      <c r="H22" s="10">
+        <f>POWER(10, 9)</f>
+        <v>1000000000</v>
+      </c>
+      <c r="I22" s="1">
+        <v>14181</v>
+      </c>
+      <c r="J22" s="1">
+        <v>5080</v>
+      </c>
+      <c r="K22" s="10">
+        <f>POWER(10, 9)</f>
+        <v>1000000000</v>
+      </c>
+      <c r="L22" s="1">
+        <v>58866</v>
+      </c>
+      <c r="M22" s="1">
+        <v>16839</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="12">
+    <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="10">
         <f>POWER(10, 10)</f>
         <v>10000000000</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="14"/>
-      <c r="G23" s="12">
+      <c r="C23" s="1">
+        <v>138394</v>
+      </c>
+      <c r="D23" s="1">
+        <v>54606</v>
+      </c>
+      <c r="E23" s="10">
         <f>POWER(10, 10)</f>
         <v>10000000000</v>
       </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="F23" s="1">
+        <v>2700</v>
+      </c>
+      <c r="G23" s="1">
+        <v>540</v>
+      </c>
+      <c r="H23" s="10">
+        <f>POWER(10, 10)</f>
+        <v>10000000000</v>
+      </c>
+      <c r="I23" s="1">
+        <v>138352</v>
+      </c>
+      <c r="J23" s="1">
+        <v>56288</v>
+      </c>
+      <c r="K23" s="10">
+        <f>POWER(10, 10)</f>
+        <v>10000000000</v>
+      </c>
+      <c r="L23" s="1">
+        <v>605921</v>
+      </c>
+      <c r="M23" s="1">
+        <v>161595</v>
+      </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="12">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="10">
         <f>POWER(10, 11)</f>
         <v>100000000000</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="14"/>
-      <c r="G24" s="12">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="10">
         <f>POWER(10, 11)</f>
         <v>100000000000</v>
       </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="10">
+        <f>POWER(10, 11)</f>
+        <v>100000000000</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="10">
+        <f>POWER(10, 11)</f>
+        <v>100000000000</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="12">
+        <f>LOG(B20,10)</f>
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:D27" si="0">LOG(C20,10)</f>
+        <v>2.1643528557844367</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>1.9242792860618814</v>
+      </c>
+      <c r="E27">
+        <f>LOG(E20,10)</f>
+        <v>7</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27:G27" si="1">LOG(F20,10)</f>
+        <v>1.1461280356782377</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>1.4771212547196624</v>
+      </c>
+      <c r="H27">
+        <f>LOG(H20,10)</f>
+        <v>7</v>
+      </c>
+      <c r="I27">
+        <f>LOG(I20,10)</f>
+        <v>2.1673173347481756</v>
+      </c>
+      <c r="J27">
+        <f>LOG(J20,10)</f>
+        <v>1.9084850188786497</v>
+      </c>
+      <c r="K27">
+        <f>LOG(K20,10)</f>
+        <v>7</v>
+      </c>
+      <c r="L27">
+        <f t="shared" ref="L27:M27" si="2">LOG(L20,10)</f>
+        <v>2.7745169657285493</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="2"/>
+        <v>2.2988530764097064</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="12">
+        <f t="shared" ref="B28:D30" si="3">LOG(B21,10)</f>
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="3"/>
+        <v>3.1376705372367546</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>2.7419390777291985</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ref="E28:G28" si="4">LOG(E21,10)</f>
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>1.556302500767287</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>1.414973347970818</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ref="H28:J30" si="5">LOG(H21,10)</f>
+        <v>8</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="5"/>
+        <v>3.1532049000842841</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>2.7951845896824237</v>
+      </c>
+      <c r="K28">
+        <f t="shared" ref="K28:M28" si="6">LOG(K21,10)</f>
+        <v>8</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="6"/>
+        <v>3.7779340488377793</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="6"/>
+        <v>3.2462523122993217</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="12">
+        <f t="shared" si="3"/>
+        <v>8.9999999999999982</v>
+      </c>
+      <c r="C29">
+        <f>LOG(C22,10)</f>
+        <v>4.1374174149903924</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="3"/>
+        <v>3.7853298350107667</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ref="E29:G29" si="7">LOG(E22,10)</f>
+        <v>8.9999999999999982</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="7"/>
+        <v>2.4742162640762553</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="7"/>
+        <v>2.0293837776852093</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="5"/>
+        <v>8.9999999999999982</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="5"/>
+        <v>4.1517068570225764</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="5"/>
+        <v>3.7058637122839189</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ref="K29:M29" si="8">LOG(K22,10)</f>
+        <v>8.9999999999999982</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="8"/>
+        <v>4.7698645260967325</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="8"/>
+        <v>4.2263162969393342</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="12">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="3"/>
+        <v>5.1411172619171515</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="3"/>
+        <v>4.7372403647510355</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ref="E30:G30" si="9">LOG(E23,10)</f>
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="9"/>
+        <v>3.4313637641589869</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="9"/>
+        <v>2.7323937598229686</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="5"/>
+        <v>5.140985441631547</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="5"/>
+        <v>4.7504158177773661</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ref="K30:M30" si="10">LOG(K23,10)</f>
+        <v>10</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="10"/>
+        <v>5.7824160045283408</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="10"/>
+        <v>5.2084279189014167</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+    </row>
+    <row r="42" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+    </row>
+    <row r="43" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+    </row>
+    <row r="44" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+    </row>
+    <row r="45" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="17"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+    </row>
+    <row r="46" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+    </row>
+    <row r="47" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="11">
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="K41:M44"/>
+    <mergeCell ref="E41:G44"/>
+    <mergeCell ref="B41:D44"/>
+    <mergeCell ref="H41:J44"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H18:J18"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>